--- a/line_plot/test_data/mcc#0.05.xlsx
+++ b/line_plot/test_data/mcc#0.05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,12 @@
       <c r="F1" s="1" t="n">
         <v>0.25</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,19 +468,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3460979007189662</v>
+        <v>0.298101860791098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3744920976764735</v>
+        <v>0.3107257813447623</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3698904380026557</v>
+        <v>0.3326846337211982</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3888152527588416</v>
+        <v>0.3323930820040283</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4096976349116846</v>
+        <v>0.3542247633202207</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2629401649440696</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2603676266704628</v>
       </c>
     </row>
     <row r="3">
@@ -484,19 +496,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4033324836247509</v>
+        <v>0.3528367116521992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4448789862369392</v>
+        <v>0.3811757306566995</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4512569368993332</v>
+        <v>0.3881651189216545</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4582951668566319</v>
+        <v>0.4013169061361405</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4880681480614114</v>
+        <v>0.4359304303830579</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2715786863646465</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2755793689874799</v>
       </c>
     </row>
     <row r="4">
@@ -506,19 +524,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4091061326082179</v>
+        <v>0.3614969049350973</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4477799919723101</v>
+        <v>0.3969003898931513</v>
       </c>
       <c r="D4" t="n">
-        <v>0.450099197475159</v>
+        <v>0.3933986249373841</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4663002281615756</v>
+        <v>0.4142635368668139</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4602468999604605</v>
+        <v>0.4191147214697749</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2814007972311381</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2838884893890851</v>
       </c>
     </row>
   </sheetData>
